--- a/Casos de prueba (1).xlsx
+++ b/Casos de prueba (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f53609a\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C2D02D-C02F-4588-8EBE-7EE9DCD3B653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948FAECC-4BAE-4A51-AED4-4F6DA2384AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7AC6CD08-B8AE-4677-98D1-4F6D9E681225}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Vuelos</t>
+  </si>
+  <si>
+    <t>Pruebas Basicas</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1217,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1251,7 +1254,9 @@
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="12">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -1263,7 +1268,9 @@
       <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1275,7 +1282,9 @@
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
